--- a/Financials/Yearly/KHC_YR_FIN.xlsx
+++ b/Financials/Yearly/KHC_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48183D-474E-43C1-B66C-18B863049F01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KHC" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,36 +689,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -710,7 +745,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,7 +772,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,7 +799,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -791,7 +826,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -804,7 +839,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -831,7 +866,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -858,7 +893,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -885,7 +920,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -912,7 +947,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -922,7 +957,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -949,7 +984,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,7 +1011,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -989,7 +1024,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,7 +1051,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1043,7 +1078,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1105,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1132,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1159,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1151,7 +1186,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1178,7 +1213,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1205,7 +1240,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1232,7 +1267,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1259,7 +1294,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1286,7 +1321,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1313,7 +1348,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1340,7 +1375,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1367,7 +1402,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1394,7 +1429,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1421,12 +1456,12 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1488,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,7 +1501,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1479,7 +1514,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1541,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1568,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1560,7 +1595,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1587,7 +1622,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1649,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1641,7 +1676,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1668,7 +1703,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1695,7 +1730,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1722,7 +1757,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1749,7 +1784,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1776,7 +1811,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1803,7 +1838,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1830,7 +1865,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1857,7 +1892,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1870,7 +1905,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1883,7 +1918,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1910,7 +1945,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1937,7 +1972,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1964,7 +1999,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1991,7 +2026,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2018,7 +2053,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2045,7 +2080,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2072,7 +2107,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2134,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2126,7 +2161,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2153,7 +2188,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2166,7 +2201,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2193,7 +2228,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2220,7 +2255,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2247,7 +2282,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2274,7 +2309,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2301,7 +2336,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2328,7 +2363,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2355,7 +2390,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2382,7 +2417,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2409,7 +2444,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2436,12 +2471,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2503,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2495,7 +2530,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2508,7 +2543,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2535,7 +2570,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2562,7 +2597,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2589,7 +2624,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2616,7 +2651,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2643,7 +2678,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2670,7 +2705,7 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2697,7 +2732,7 @@
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2710,7 +2745,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2737,7 +2772,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2764,7 +2799,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2791,7 +2826,7 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2818,7 +2853,7 @@
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2831,7 +2866,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2858,7 +2893,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2885,7 +2920,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2912,7 +2947,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2939,7 +2974,7 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -2966,7 +3001,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2993,7 +3028,7 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>

--- a/Financials/Yearly/KHC_YR_FIN.xlsx
+++ b/Financials/Yearly/KHC_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48183D-474E-43C1-B66C-18B863049F01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KHC" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>KHC</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,144 +654,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E7" s="2">
         <v>43099</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42372</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41637</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41028</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>26232000</v>
+        <v>26268000</v>
       </c>
       <c r="E8" s="3">
-        <v>26487000</v>
+        <v>26076000</v>
       </c>
       <c r="F8" s="3">
+        <v>26300000</v>
+      </c>
+      <c r="G8" s="3">
         <v>18338000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10922000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6240000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11508000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16205000</v>
+        <v>17153000</v>
       </c>
       <c r="E9" s="3">
-        <v>16190000</v>
+        <v>16579000</v>
       </c>
       <c r="F9" s="3">
+        <v>16455000</v>
+      </c>
+      <c r="G9" s="3">
         <v>12577000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7291000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4588000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7513000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10027000</v>
+        <v>9115000</v>
       </c>
       <c r="E10" s="3">
-        <v>10297000</v>
+        <v>9497000</v>
       </c>
       <c r="F10" s="3">
+        <v>9845000</v>
+      </c>
+      <c r="G10" s="3">
         <v>5761000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3631000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1652000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3995000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +815,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,9 +842,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,36 +872,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>506000</v>
+        <v>16396000</v>
       </c>
       <c r="E14" s="3">
-        <v>1012000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>483000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1030000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>158000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -945,9 +932,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -956,62 +946,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19459000</v>
+        <v>36651000</v>
       </c>
       <c r="E17" s="3">
-        <v>20345000</v>
+        <v>19870000</v>
       </c>
       <c r="F17" s="3">
+        <v>20719000</v>
+      </c>
+      <c r="G17" s="3">
         <v>15699000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9354000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6248000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10005000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6773000</v>
+        <v>-10383000</v>
       </c>
       <c r="E18" s="3">
-        <v>6142000</v>
+        <v>6206000</v>
       </c>
       <c r="F18" s="3">
+        <v>5581000</v>
+      </c>
+      <c r="G18" s="3">
         <v>2639000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1568000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1503000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1023,143 +1020,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13000</v>
+        <v>342000</v>
       </c>
       <c r="E20" s="3">
-        <v>11000</v>
+        <v>474000</v>
       </c>
       <c r="F20" s="3">
+        <v>488000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-544000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-79000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>119000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>27000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7796000</v>
+        <v>-9058000</v>
       </c>
       <c r="E21" s="3">
-        <v>7490000</v>
+        <v>7711000</v>
       </c>
       <c r="F21" s="3">
+        <v>7406000</v>
+      </c>
+      <c r="G21" s="3">
         <v>2835000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2019000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>391000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1869000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1280000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1230000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1130000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1082000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>686000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>409000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>293000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5530000</v>
+        <v>-11321000</v>
       </c>
       <c r="E23" s="3">
-        <v>5023000</v>
+        <v>5450000</v>
       </c>
       <c r="F23" s="3">
+        <v>4939000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1013000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>803000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-298000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1237000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1540000</v>
+        <v>-1171000</v>
       </c>
       <c r="E24" s="3">
-        <v>1381000</v>
+        <v>1518000</v>
       </c>
       <c r="F24" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="G24" s="3">
         <v>366000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>131000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-232000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>245000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,63 +1197,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3990000</v>
+        <v>-10150000</v>
       </c>
       <c r="E26" s="3">
-        <v>3642000</v>
+        <v>3932000</v>
       </c>
       <c r="F26" s="3">
+        <v>3606000</v>
+      </c>
+      <c r="G26" s="3">
         <v>647000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>672000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-66000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>992000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3999000</v>
+        <v>-10088000</v>
       </c>
       <c r="E27" s="3">
-        <v>3452000</v>
+        <v>3941000</v>
       </c>
       <c r="F27" s="3">
+        <v>3416000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-266000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-63000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1118000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>973000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,36 +1287,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E29" s="3">
         <v>7000000</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-6000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-51000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1319,9 +1347,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1346,63 +1377,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13000</v>
+        <v>-342000</v>
       </c>
       <c r="E32" s="3">
-        <v>-11000</v>
+        <v>-474000</v>
       </c>
       <c r="F32" s="3">
+        <v>-488000</v>
+      </c>
+      <c r="G32" s="3">
         <v>544000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>79000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-119000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-27000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10999000</v>
+        <v>-10192000</v>
       </c>
       <c r="E33" s="3">
-        <v>3452000</v>
+        <v>10941000</v>
       </c>
       <c r="F33" s="3">
+        <v>3416000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-266000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-63000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1124000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>922000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1427,68 +1467,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10999000</v>
+        <v>-10192000</v>
       </c>
       <c r="E35" s="3">
-        <v>3452000</v>
+        <v>10941000</v>
       </c>
       <c r="F35" s="3">
+        <v>3416000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-266000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-63000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1124000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>922000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E38" s="2">
         <v>43099</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42372</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42001</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41637</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41028</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1500,8 +1549,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1513,35 +1563,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1629000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4204000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4837000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2298000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2459000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1566,117 +1620,132 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1856000</v>
+        <v>2281000</v>
       </c>
       <c r="E43" s="3">
+        <v>1812000</v>
+      </c>
+      <c r="F43" s="3">
         <v>898000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1454000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1034000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1299000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2815000</v>
+        <v>2667000</v>
       </c>
       <c r="E44" s="3">
+        <v>2760000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2684000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2618000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1185000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1435000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>966000</v>
+        <v>2997000</v>
       </c>
       <c r="E45" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="F45" s="3">
         <v>967000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>871000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>921000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>251000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7266000</v>
+        <v>9075000</v>
       </c>
       <c r="E46" s="3">
+        <v>7201000</v>
+      </c>
+      <c r="F46" s="3">
         <v>8753000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9780000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4915000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5444000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1701,63 +1770,72 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7120000</v>
+        <v>7078000</v>
       </c>
       <c r="E48" s="3">
+        <v>7061000</v>
+      </c>
+      <c r="F48" s="3">
         <v>6688000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6524000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2365000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2663000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>104273000</v>
+        <v>85971000</v>
       </c>
       <c r="E49" s="3">
+        <v>104257000</v>
+      </c>
+      <c r="F49" s="3">
         <v>103422000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>105171000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41335000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29560000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1782,9 +1860,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1809,36 +1890,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1573000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1617000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1498000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2480000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1305000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1863,36 +1950,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>120232000</v>
+        <v>103461000</v>
       </c>
       <c r="E54" s="3">
+        <v>120092000</v>
+      </c>
+      <c r="F54" s="3">
         <v>120480000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122973000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36571000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38972000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1904,8 +1997,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1917,170 +2011,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4449000</v>
+        <v>4153000</v>
       </c>
       <c r="E57" s="3">
+        <v>4362000</v>
+      </c>
+      <c r="F57" s="3">
         <v>3996000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2844000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1651000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1192000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3203000</v>
+        <v>398000</v>
       </c>
       <c r="E58" s="3">
+        <v>3195000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2691000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>83000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>70000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>252000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2480000</v>
+        <v>2952000</v>
       </c>
       <c r="E59" s="3">
+        <v>2648000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2814000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4005000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2116000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1481000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10132000</v>
+        <v>7503000</v>
       </c>
       <c r="E60" s="3">
+        <v>10154000</v>
+      </c>
+      <c r="F60" s="3">
         <v>9501000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6932000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3092000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2925000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28333000</v>
+        <v>30770000</v>
       </c>
       <c r="E61" s="3">
+        <v>28308000</v>
+      </c>
+      <c r="F61" s="3">
         <v>29713000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25151000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13358000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14618000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15520000</v>
+        <v>13410000</v>
       </c>
       <c r="E62" s="3">
+        <v>15554000</v>
+      </c>
+      <c r="F62" s="3">
         <v>23692000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24654000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4969000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4887000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2105,9 +2218,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2132,9 +2248,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2159,36 +2278,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54198000</v>
+        <v>51804000</v>
       </c>
       <c r="E66" s="3">
+        <v>54229000</v>
+      </c>
+      <c r="F66" s="3">
         <v>63122000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56968000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21134000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22676000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2200,8 +2325,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2226,9 +2352,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2253,9 +2382,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2266,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>8320000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>8320000</v>
@@ -2275,14 +2407,17 @@
         <v>8320000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>8320000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2307,36 +2442,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8589000</v>
+        <v>-4853000</v>
       </c>
       <c r="E72" s="3">
+        <v>8495000</v>
+      </c>
+      <c r="F72" s="3">
         <v>588000</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>367000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>290000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2361,9 +2502,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2388,9 +2532,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2415,36 +2562,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66034000</v>
+        <v>51657000</v>
       </c>
       <c r="E76" s="3">
+        <v>65863000</v>
+      </c>
+      <c r="F76" s="3">
         <v>57358000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57685000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7117000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7976000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2469,68 +2622,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E80" s="2">
         <v>43099</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42372</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42001</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41637</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41028</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10999000</v>
+        <v>-10192000</v>
       </c>
       <c r="E81" s="3">
-        <v>3452000</v>
+        <v>10941000</v>
       </c>
       <c r="F81" s="3">
+        <v>3416000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-266000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-63000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1124000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>922000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2542,35 +2704,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1036000</v>
+        <v>983000</v>
       </c>
       <c r="E83" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1337000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>740000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>530000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>280000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>339000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2595,9 +2761,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2622,9 +2791,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2649,9 +2821,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2676,9 +2851,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2703,36 +2881,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>527000</v>
+        <v>2574000</v>
       </c>
       <c r="E89" s="3">
-        <v>2649000</v>
+        <v>501000</v>
       </c>
       <c r="F89" s="3">
+        <v>2648000</v>
+      </c>
+      <c r="G89" s="3">
         <v>2467000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2140000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1494000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2744,35 +2928,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1217000</v>
+        <v>-826000</v>
       </c>
       <c r="E91" s="3">
+        <v>-1194000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-648000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-399000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-202000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-419000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2797,9 +2985,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2824,36 +3015,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1156000</v>
+        <v>288000</v>
       </c>
       <c r="E94" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="F94" s="3">
         <v>1452000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9704000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-349000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21671000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-401000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2865,35 +3062,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3183000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2888000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3764000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2202000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-720000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-360000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2918,9 +3119,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2945,9 +3149,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2972,88 +3179,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4226000</v>
+        <v>-3363000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4621000</v>
+        <v>-4221000</v>
       </c>
       <c r="F100" s="3">
+        <v>-4620000</v>
+      </c>
+      <c r="G100" s="3">
         <v>10183000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1820000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24109000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-364000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E101" s="3">
         <v>57000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-137000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-407000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-132000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-122000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-633000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2486000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-657000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2539000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-161000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2459000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>607000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
